--- a/data/trans_orig/P14C29-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14C29-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E3B3BA2-BC1A-4565-977A-50547FCEFCDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{01D8EA34-1481-4E85-8096-B9A76FA83BD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B0E850D4-937F-484C-984D-FC0A09519DBB}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0858E8D5-8A00-4579-B277-85316E6154CC}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="102">
   <si>
     <t>Población según el tiempo de diagnóstico del osteoporosis en 2015 (Tasa respuesta: 1,67%)</t>
   </si>
@@ -104,7 +104,7 @@
     <t>60,58%</t>
   </si>
   <si>
-    <t>19,9%</t>
+    <t>19,84%</t>
   </si>
   <si>
     <t>0%</t>
@@ -116,6 +116,9 @@
     <t>24,04%</t>
   </si>
   <si>
+    <t>74,53%</t>
+  </si>
+  <si>
     <t>19,3%</t>
   </si>
   <si>
@@ -131,7 +134,7 @@
     <t>20,12%</t>
   </si>
   <si>
-    <t>79,39%</t>
+    <t>80,27%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -143,13 +146,13 @@
     <t>66,47%</t>
   </si>
   <si>
-    <t>16,53%</t>
+    <t>16,55%</t>
   </si>
   <si>
     <t>75,23%</t>
   </si>
   <si>
-    <t>38,06%</t>
+    <t>37,43%</t>
   </si>
   <si>
     <t>56,93%</t>
@@ -158,13 +161,13 @@
     <t>33,53%</t>
   </si>
   <si>
-    <t>83,47%</t>
+    <t>83,45%</t>
   </si>
   <si>
     <t>24,77%</t>
   </si>
   <si>
-    <t>61,94%</t>
+    <t>62,57%</t>
   </si>
   <si>
     <t>26,42%</t>
@@ -179,37 +182,37 @@
     <t>73,89%</t>
   </si>
   <si>
-    <t>50,02%</t>
-  </si>
-  <si>
-    <t>90,08%</t>
+    <t>49,52%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
   </si>
   <si>
     <t>76,29%</t>
   </si>
   <si>
-    <t>54,79%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
+    <t>54,5%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
   </si>
   <si>
     <t>26,11%</t>
   </si>
   <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>49,98%</t>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>50,48%</t>
   </si>
   <si>
     <t>23,71%</t>
   </si>
   <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>45,21%</t>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>45,5%</t>
   </si>
   <si>
     <t>9,99%</t>
@@ -227,55 +230,55 @@
     <t>78,03%</t>
   </si>
   <si>
-    <t>68,2%</t>
-  </si>
-  <si>
-    <t>86,41%</t>
+    <t>65,27%</t>
+  </si>
+  <si>
+    <t>86,25%</t>
   </si>
   <si>
     <t>79,43%</t>
   </si>
   <si>
-    <t>69,78%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
+    <t>70,33%</t>
+  </si>
+  <si>
+    <t>88,08%</t>
   </si>
   <si>
     <t>16,09%</t>
   </si>
   <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
   </si>
   <si>
     <t>15,07%</t>
   </si>
   <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
   </si>
   <si>
     <t>5,88%</t>
   </si>
   <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
   </si>
   <si>
     <t>5,51%</t>
   </si>
   <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
   </si>
   <si>
     <t>84,31%</t>
@@ -284,19 +287,19 @@
     <t>75,73%</t>
   </si>
   <si>
-    <t>66,42%</t>
-  </si>
-  <si>
-    <t>83,38%</t>
+    <t>67,12%</t>
+  </si>
+  <si>
+    <t>83,56%</t>
   </si>
   <si>
     <t>77,85%</t>
   </si>
   <si>
-    <t>69,13%</t>
-  </si>
-  <si>
-    <t>84,77%</t>
+    <t>69,71%</t>
+  </si>
+  <si>
+    <t>85,74%</t>
   </si>
   <si>
     <t>15,69%</t>
@@ -305,37 +308,37 @@
     <t>19,2%</t>
   </si>
   <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>27,11%</t>
   </si>
   <si>
     <t>17,52%</t>
   </si>
   <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
   </si>
   <si>
     <t>5,07%</t>
   </si>
   <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
   </si>
   <si>
     <t>4,63%</t>
   </si>
   <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -750,7 +753,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F2A5516-1D01-4BE1-A676-A01924551F7C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70901A3B-C913-4ED1-8CC5-C27F177E3270}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1310,7 +1313,7 @@
         <v>20</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -1319,13 +1322,13 @@
         <v>902</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1355,13 +1358,13 @@
         <v>940</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -1370,13 +1373,13 @@
         <v>940</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1432,7 +1435,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1447,7 +1450,7 @@
         <v>16</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>18</v>
@@ -1459,10 +1462,10 @@
         <v>4185</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>16</v>
@@ -1474,10 +1477,10 @@
         <v>6409</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>16</v>
@@ -1501,7 +1504,7 @@
         <v>23</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
@@ -1510,13 +1513,13 @@
         <v>2111</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M17" s="7">
         <v>2</v>
@@ -1525,13 +1528,13 @@
         <v>2111</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1552,7 +1555,7 @@
         <v>23</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -1567,7 +1570,7 @@
         <v>23</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -1582,7 +1585,7 @@
         <v>23</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1638,7 +1641,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -1653,7 +1656,7 @@
         <v>16</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>18</v>
@@ -1665,13 +1668,13 @@
         <v>16042</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M20" s="7">
         <v>15</v>
@@ -1680,13 +1683,13 @@
         <v>18236</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1707,7 +1710,7 @@
         <v>23</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H21" s="7">
         <v>5</v>
@@ -1716,13 +1719,13 @@
         <v>5668</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M21" s="7">
         <v>5</v>
@@ -1731,13 +1734,13 @@
         <v>5668</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1758,7 +1761,7 @@
         <v>23</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -1773,7 +1776,7 @@
         <v>23</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -1788,7 +1791,7 @@
         <v>23</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1844,7 +1847,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -1859,7 +1862,7 @@
         <v>16</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>18</v>
@@ -1871,13 +1874,13 @@
         <v>64833</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M24" s="7">
         <v>61</v>
@@ -1886,13 +1889,13 @@
         <v>70463</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -1913,7 +1916,7 @@
         <v>23</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H25" s="7">
         <v>12</v>
@@ -1922,13 +1925,13 @@
         <v>13367</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M25" s="7">
         <v>12</v>
@@ -1937,13 +1940,13 @@
         <v>13367</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -1964,7 +1967,7 @@
         <v>23</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H26" s="7">
         <v>4</v>
@@ -1973,13 +1976,13 @@
         <v>4885</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M26" s="7">
         <v>4</v>
@@ -1988,13 +1991,13 @@
         <v>4885</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2065,7 +2068,7 @@
         <v>16</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>18</v>
@@ -2077,13 +2080,13 @@
         <v>86969</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M28" s="7">
         <v>85</v>
@@ -2092,13 +2095,13 @@
         <v>97939</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2119,7 +2122,7 @@
         <v>23</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H29" s="7">
         <v>20</v>
@@ -2128,13 +2131,13 @@
         <v>22047</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M29" s="7">
         <v>20</v>
@@ -2143,13 +2146,13 @@
         <v>22047</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2170,7 +2173,7 @@
         <v>23</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H30" s="7">
         <v>5</v>
@@ -2179,13 +2182,13 @@
         <v>5825</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M30" s="7">
         <v>5</v>
@@ -2194,13 +2197,13 @@
         <v>5825</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2256,7 +2259,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14C29-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14C29-Edad-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{01D8EA34-1481-4E85-8096-B9A76FA83BD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E25C1C2C-4E0F-439D-A944-82669D24AC90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0858E8D5-8A00-4579-B277-85316E6154CC}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9A9457E7-A208-4088-BEFD-104BC01A1457}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="102">
   <si>
-    <t>Población según el tiempo de diagnóstico del osteoporosis en 2015 (Tasa respuesta: 1,67%)</t>
+    <t>Población según el tiempo de diagnóstico del osteoporosis en 2016 (Tasa respuesta: 1,67%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -104,7 +104,7 @@
     <t>60,58%</t>
   </si>
   <si>
-    <t>19,84%</t>
+    <t>19,9%</t>
   </si>
   <si>
     <t>0%</t>
@@ -134,7 +134,7 @@
     <t>20,12%</t>
   </si>
   <si>
-    <t>80,27%</t>
+    <t>80,31%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -152,7 +152,7 @@
     <t>75,23%</t>
   </si>
   <si>
-    <t>37,43%</t>
+    <t>37,26%</t>
   </si>
   <si>
     <t>56,93%</t>
@@ -167,7 +167,7 @@
     <t>24,77%</t>
   </si>
   <si>
-    <t>62,57%</t>
+    <t>62,74%</t>
   </si>
   <si>
     <t>26,42%</t>
@@ -182,37 +182,37 @@
     <t>73,89%</t>
   </si>
   <si>
-    <t>49,52%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
+    <t>50,54%</t>
+  </si>
+  <si>
+    <t>89,81%</t>
   </si>
   <si>
     <t>76,29%</t>
   </si>
   <si>
-    <t>54,5%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
+    <t>56,01%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
   </si>
   <si>
     <t>26,11%</t>
   </si>
   <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>50,48%</t>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>49,46%</t>
   </si>
   <si>
     <t>23,71%</t>
   </si>
   <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>45,5%</t>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>43,99%</t>
   </si>
   <si>
     <t>9,99%</t>
@@ -230,55 +230,55 @@
     <t>78,03%</t>
   </si>
   <si>
-    <t>65,27%</t>
-  </si>
-  <si>
-    <t>86,25%</t>
+    <t>66,98%</t>
+  </si>
+  <si>
+    <t>86,16%</t>
   </si>
   <si>
     <t>79,43%</t>
   </si>
   <si>
-    <t>70,33%</t>
-  </si>
-  <si>
-    <t>88,08%</t>
+    <t>70,17%</t>
+  </si>
+  <si>
+    <t>87,66%</t>
   </si>
   <si>
     <t>16,09%</t>
   </si>
   <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
   </si>
   <si>
     <t>15,07%</t>
   </si>
   <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
   </si>
   <si>
     <t>5,88%</t>
   </si>
   <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
   </si>
   <si>
     <t>5,51%</t>
   </si>
   <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
   </si>
   <si>
     <t>84,31%</t>
@@ -287,19 +287,19 @@
     <t>75,73%</t>
   </si>
   <si>
-    <t>67,12%</t>
-  </si>
-  <si>
-    <t>83,56%</t>
+    <t>66,31%</t>
+  </si>
+  <si>
+    <t>83,28%</t>
   </si>
   <si>
     <t>77,85%</t>
   </si>
   <si>
-    <t>69,71%</t>
-  </si>
-  <si>
-    <t>85,74%</t>
+    <t>69,67%</t>
+  </si>
+  <si>
+    <t>85,28%</t>
   </si>
   <si>
     <t>15,69%</t>
@@ -308,37 +308,37 @@
     <t>19,2%</t>
   </si>
   <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>27,11%</t>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
   </si>
   <si>
     <t>17,52%</t>
   </si>
   <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
   </si>
   <si>
     <t>5,07%</t>
   </si>
   <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
   </si>
   <si>
     <t>4,63%</t>
   </si>
   <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -753,7 +753,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70901A3B-C913-4ED1-8CC5-C27F177E3270}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D49722D4-AC49-4DC3-A937-ACB2F4D18793}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
